--- a/REGULAR/CEO/OCAMPO, ORLANDO.xlsx
+++ b/REGULAR/CEO/OCAMPO, ORLANDO.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="363">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1120,6 +1120,9 @@
   </si>
   <si>
     <t>UT(0-0-5)</t>
+  </si>
+  <si>
+    <t>10/4,6/2023</t>
   </si>
 </sst>
 </file>
@@ -2000,7 +2003,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2043,7 +2046,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,7 +2110,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2167,7 +2170,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2233,7 +2236,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2296,7 +2299,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2394,7 +2397,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2453,7 +2456,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2518,7 +2521,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2561,7 +2564,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2636,7 +2639,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2822,7 +2825,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2888,7 +2891,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2946,7 +2949,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3012,7 +3015,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3068,7 +3071,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3143,7 +3146,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3186,7 +3189,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3252,7 +3255,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3308,7 +3311,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3406,7 +3409,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3469,7 +3472,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3535,7 +3538,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K567" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K568" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3913,12 +3916,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K567"/>
+  <dimension ref="A2:K568"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A527" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A548" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="F534" sqref="F534"/>
+      <selection pane="bottomLeft" activeCell="K558" sqref="K558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4081,7 +4084,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>55.258000000000067</v>
+        <v>57.758000000000067</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4091,7 +4094,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>134.49799999999999</v>
+        <v>133.99799999999999</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12029,7 +12032,7 @@
       <c r="D363" s="39"/>
       <c r="E363" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>55.258000000000067</v>
+        <v>57.758000000000067</v>
       </c>
       <c r="F363" s="20"/>
       <c r="G363" s="13" t="str">
@@ -12039,7 +12042,7 @@
       <c r="H363" s="39"/>
       <c r="I363" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>134.49799999999999</v>
+        <v>133.99799999999999</v>
       </c>
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
@@ -16267,13 +16270,15 @@
       <c r="B554" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C554" s="13"/>
+      <c r="C554" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D554" s="39"/>
       <c r="E554" s="9"/>
       <c r="F554" s="20"/>
-      <c r="G554" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G554" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H554" s="39">
         <v>1</v>
@@ -16309,13 +16314,15 @@
         <v>45170</v>
       </c>
       <c r="B556" s="20"/>
-      <c r="C556" s="13"/>
+      <c r="C556" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D556" s="39"/>
       <c r="E556" s="9"/>
       <c r="F556" s="20"/>
-      <c r="G556" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G556" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H556" s="39"/>
       <c r="I556" s="9"/>
@@ -16326,7 +16333,9 @@
       <c r="A557" s="40">
         <v>45200</v>
       </c>
-      <c r="B557" s="20"/>
+      <c r="B557" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C557" s="13"/>
       <c r="D557" s="39"/>
       <c r="E557" s="9"/>
@@ -16335,16 +16344,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H557" s="39"/>
+      <c r="H557" s="39">
+        <v>1</v>
+      </c>
       <c r="I557" s="9"/>
       <c r="J557" s="11"/>
-      <c r="K557" s="20"/>
+      <c r="K557" s="49">
+        <v>45211</v>
+      </c>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A558" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B558" s="20"/>
+      <c r="A558" s="40"/>
+      <c r="B558" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="C558" s="13"/>
       <c r="D558" s="39"/>
       <c r="E558" s="9"/>
@@ -16353,14 +16366,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H558" s="39"/>
+      <c r="H558" s="39">
+        <v>2</v>
+      </c>
       <c r="I558" s="9"/>
       <c r="J558" s="11"/>
-      <c r="K558" s="20"/>
+      <c r="K558" s="49" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -16378,7 +16395,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -16396,7 +16413,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -16414,7 +16431,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -16432,7 +16449,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -16450,7 +16467,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -16468,7 +16485,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16485,7 +16502,9 @@
       <c r="K565" s="20"/>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A566" s="40"/>
+      <c r="A566" s="40">
+        <v>45444</v>
+      </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
       <c r="D566" s="39"/>
@@ -16501,20 +16520,36 @@
       <c r="K566" s="20"/>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A567" s="41"/>
-      <c r="B567" s="15"/>
-      <c r="C567" s="42"/>
-      <c r="D567" s="43"/>
-      <c r="E567" s="51"/>
-      <c r="F567" s="15"/>
-      <c r="G567" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H567" s="43"/>
-      <c r="I567" s="51"/>
-      <c r="J567" s="12"/>
-      <c r="K567" s="15"/>
+      <c r="A567" s="40"/>
+      <c r="B567" s="20"/>
+      <c r="C567" s="13"/>
+      <c r="D567" s="39"/>
+      <c r="E567" s="9"/>
+      <c r="F567" s="20"/>
+      <c r="G567" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H567" s="39"/>
+      <c r="I567" s="9"/>
+      <c r="J567" s="11"/>
+      <c r="K567" s="20"/>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A568" s="41"/>
+      <c r="B568" s="15"/>
+      <c r="C568" s="42"/>
+      <c r="D568" s="43"/>
+      <c r="E568" s="51"/>
+      <c r="F568" s="15"/>
+      <c r="G568" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H568" s="43"/>
+      <c r="I568" s="51"/>
+      <c r="J568" s="12"/>
+      <c r="K568" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
